--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -247,7 +247,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>2.988345337198654</v>
+        <v>8.545043666543112</v>
       </c>
     </row>
     <row r="5">
@@ -258,7 +258,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>10.414384253628999</v>
+        <v>27.50726038674152</v>
       </c>
     </row>
     <row r="6">
@@ -269,7 +269,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>3.5127680625532145</v>
+        <v>7.545759053209421</v>
       </c>
     </row>
     <row r="7">
@@ -280,7 +280,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.027553109411077</v>
+        <v>24.433376021409586</v>
       </c>
     </row>
     <row r="8">
@@ -291,7 +291,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>4.128730561237026</v>
+        <v>7.347756617256282</v>
       </c>
     </row>
     <row r="9">
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>13.92230608476055</v>
+        <v>23.824303707023063</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2.1854999999999993</v>
+        <v>33.40549999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1328,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>4.437499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="18">
@@ -1382,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.1854999999999993</v>
+        <v>33.40549999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1404,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>-4.437499999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1426,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="26">

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Xcg operating empty mass (max for)</t>
   </si>
   <si>
-    <t>Percent Error</t>
-  </si>
-  <si>
     <t>Xcg LRF</t>
   </si>
   <si>
@@ -102,25 +99,19 @@
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>Ycg LRF (semi-wing)</t>
+  </si>
+  <si>
+    <t>Ycg BRF (semi-wing)</t>
+  </si>
+  <si>
     <t>Ycg ESTIMATION METHOD COMPARISON</t>
   </si>
   <si>
-    <t>Total Xcg LRF</t>
-  </si>
-  <si>
-    <t>Total Xcg BRF</t>
-  </si>
-  <si>
-    <t>Total Ycg LRF</t>
-  </si>
-  <si>
-    <t>Total Ycg BRF</t>
-  </si>
-  <si>
-    <t>Total Zcg LRF</t>
-  </si>
-  <si>
-    <t>Total Zcg BRF</t>
+    <t>Ycg LRF (semi-tail)</t>
+  </si>
+  <si>
+    <t>Ycg BRF (semi-tail)</t>
   </si>
   <si>
     <t>BALANCE ESTIMATION FOR EACH NACELLE</t>
@@ -225,7 +216,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.225057056820859</v>
+        <v>6.284048793214055</v>
       </c>
     </row>
     <row r="3">
@@ -236,105 +227,125 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.370784479628455</v>
+        <v>20.552248072446005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.545043666543112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50726038674152</v>
+        <v>8.580362802713651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>7.545759053209421</v>
+        <v>27.61590505015674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>24.433376021409586</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>7.347756617256282</v>
+        <v>7.5501369346243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>23.824303707023063</v>
+        <v>24.44684275656683</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.702119114986044</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>19.66902123887338</v>
+        <v>7.411821054936215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.02137135995246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.702119114986044</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.66902123887338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>21.63592336276072</v>
       </c>
     </row>
@@ -361,13 +372,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -378,7 +386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -389,7 +397,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -400,29 +408,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.52460075556141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>15.52460075556141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -433,31 +435,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15.524600755561412</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-9.308325998589693</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -465,8 +464,16 @@
       <c r="C11" t="n">
         <v>15.524600755561412</v>
       </c>
-      <c r="D11" t="n">
-        <v>-9.308325998589693</v>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.524600755561412</v>
       </c>
     </row>
   </sheetData>
@@ -492,13 +499,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -509,7 +513,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -520,7 +524,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -531,111 +535,104 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21.065548943013923</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>6.183898882356096</v>
+        <v>21.065548943013923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.3199999999999998</v>
+        <v>6.183898882356096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.3199999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.148114097087354</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19.872438453535377</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2.1829837889405006</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21.818291793554735</v>
+        <v>2.148114097087354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.1829837889405006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.465500883744475</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161.2803601846801</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
+        <v>18.465500883744475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>6.183898882356097</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-12.500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -661,13 +658,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -678,7 +672,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -689,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -700,83 +694,82 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.21353974342176</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.7278324361680608</v>
+        <v>33.21353974342176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3399999999999999</v>
+        <v>1.7278324361680608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.3399999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.6735397434217631</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4.9125145783089</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.6735397434217631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.727832436168061</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-5.00000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -802,35 +795,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>3.7740879999999972</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0981999999999998</v>
+        <v>2.1963999999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -841,83 +831,82 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.539999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0981999999999996</v>
+        <v>35.31408799999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.4999999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.1963999999999992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.972743999999998</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.7497098646034</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.7740879999999972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0981999999999998</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-4.9999999999999885</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.1963999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -946,51 +935,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>1.7483999999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1001,7 +972,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1017,104 +988,104 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.96839999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.437499999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.7483999999999997</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32.96839999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.437499999999999</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>1.7483999999999997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1.6499999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1.7483999999999997</v>
+        <v>32.96839999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1125,55 +1096,32 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>32.96839999999999</v>
+        <v>-4.437499999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-4.437499999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.6499999999999997</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1203,51 +1151,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>2.1854999999999993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1258,7 +1188,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1274,104 +1204,104 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.40549999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.437499999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.1854999999999993</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33.40549999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.437499999999999</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>2.1854999999999993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1.6499999999999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2.1854999999999993</v>
+        <v>33.40549999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1382,55 +1312,32 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>33.40549999999999</v>
+        <v>-4.437499999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>1.6499999999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-4.437499999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.6499999999999997</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1460,7 +1367,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1471,13 +1378,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>22.349999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1493,13 +1400,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1510,18 +1411,34 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>22.349999999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>-2.7799999999999994</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -9,17 +9,18 @@
     <sheet name="GLOBAL RESULTS" r:id="rId3" sheetId="1"/>
     <sheet name="FUSELAGE" r:id="rId4" sheetId="2"/>
     <sheet name="WING" r:id="rId5" sheetId="3"/>
-    <sheet name="HORIZONTAL TAIL" r:id="rId6" sheetId="4"/>
-    <sheet name="VERTICAL TAIL" r:id="rId7" sheetId="5"/>
-    <sheet name="NACELLES" r:id="rId8" sheetId="6"/>
-    <sheet name="POWER PLANT" r:id="rId9" sheetId="7"/>
-    <sheet name="LANDING GEARS" r:id="rId10" sheetId="8"/>
+    <sheet name="FUEL TANK" r:id="rId6" sheetId="4"/>
+    <sheet name="HORIZONTAL TAIL" r:id="rId7" sheetId="5"/>
+    <sheet name="VERTICAL TAIL" r:id="rId8" sheetId="6"/>
+    <sheet name="NACELLES" r:id="rId9" sheetId="7"/>
+    <sheet name="POWER PLANT" r:id="rId10" sheetId="8"/>
+    <sheet name="LANDING GEARS" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -33,43 +34,55 @@
     <t>Xcg structure MAC</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Xcg structure BRF</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Zcg structure BRF</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Xcg structure BRF</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Xcg structure and engines MAC</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Xcg structure and engines BRF</t>
   </si>
   <si>
+    <t>Zcg structure and engines BRF</t>
+  </si>
+  <si>
+    <t>Xcg operating empty mass MAC</t>
+  </si>
+  <si>
+    <t>Xcg operating empty mass BRF</t>
+  </si>
+  <si>
+    <t>Zcg operating empty mass BRF</t>
+  </si>
+  <si>
     <t>Xcg maximum zero fuel mass MAC</t>
   </si>
   <si>
     <t>Xcg maximum zero fuel mass BRF</t>
   </si>
   <si>
+    <t>Zcg maximum zero fuel mass BRF</t>
+  </si>
+  <si>
     <t>Xcg maximum take-off mass MAC</t>
   </si>
   <si>
     <t>Xcg maximum take-off mass BRF</t>
   </si>
   <si>
-    <t>Xcg operating empty mass (max aft)</t>
-  </si>
-  <si>
-    <t>Xcg operating empty mass (mean)</t>
-  </si>
-  <si>
-    <t>Xcg operating empty mass (max for)</t>
+    <t>Zcg maximum take-off mass BRF</t>
   </si>
   <si>
     <t>Xcg LRF</t>
@@ -216,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.284048793214055</v>
+        <v>6.137611022719621</v>
       </c>
     </row>
     <row r="3">
@@ -227,23 +240,23 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.552248072446005</v>
+        <v>20.101793049712064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7605267757572038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.580362802713651</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -251,102 +264,151 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>27.61590505015674</v>
+        <v>8.303995077089098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26.765774447179098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7.5501369346243</v>
+        <v>0.44693409599587774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24.44684275656683</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.303995077089098</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7.411821054936215</v>
+        <v>26.765774447179098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>24.02137135995246</v>
+        <v>0.44693409599587774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>17.702119114986044</v>
+        <v>7.268706588449116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>19.66902123887338</v>
+        <v>23.58113910267801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>21.63592336276072</v>
+        <v>0.32179798988851327</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.186296489581906</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23.327638637371848</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.01733077744615341</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +437,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -386,7 +448,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -397,7 +459,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -408,12 +470,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -424,7 +486,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -435,7 +497,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -446,17 +508,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -467,7 +529,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -502,7 +564,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -513,7 +575,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -524,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -535,12 +597,12 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -551,7 +613,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -562,7 +624,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -573,17 +635,17 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -594,7 +656,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -605,17 +667,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -626,7 +688,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -661,29 +723,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6735397434217631</v>
+        <v>2.3523759476907085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.727832436168061</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -694,82 +756,45 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>33.21353974342176</v>
+        <v>21.2523759476907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7278324361680608</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.3399999999999999</v>
+        <v>-1.3199999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.6735397434217631</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.727832436168061</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -798,29 +823,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7740879999999972</v>
+        <v>1.6735397434217631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2.1963999999999997</v>
+        <v>1.727832436168061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -831,82 +856,82 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>35.31408799999999</v>
+        <v>33.21353974342176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.7278324361680608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1963999999999992</v>
+        <v>1.3399999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3.7740879999999972</v>
+        <v>1.6735397434217631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>2.1963999999999997</v>
+        <v>1.727832436168061</v>
       </c>
     </row>
   </sheetData>
@@ -935,44 +960,56 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.7740879999999972</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1963999999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.7483999999999997</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>35.31408799999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -983,146 +1020,55 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.1963999999999992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>32.96839999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.437499999999999</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6499999999999997</v>
+        <v>3.7740879999999972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.7483999999999997</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>32.96839999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-4.437499999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.6499999999999997</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.1963999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1151,33 +1097,33 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1854999999999993</v>
+        <v>1.7483999999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1188,7 +1134,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1199,23 +1145,23 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>33.40549999999999</v>
+        <v>32.96839999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1226,7 +1172,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1237,38 +1183,38 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>2.1854999999999993</v>
+        <v>1.7483999999999997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1279,7 +1225,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1290,23 +1236,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>33.40549999999999</v>
+        <v>32.96839999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1317,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1328,17 +1274,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1367,56 +1313,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.1854999999999993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>22.349999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1427,18 +1361,208 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-2.7799999999999994</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.40549999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.437499999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.6499999999999997</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.1854999999999993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.40549999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.437499999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.6499999999999997</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.012676100376424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.0669999999999993</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -229,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.137611022719621</v>
+        <v>6.158193778588456</v>
       </c>
     </row>
     <row r="3">
@@ -240,7 +240,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.101793049712064</v>
+        <v>20.16510735538278</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7605267757572038</v>
+        <v>-0.7604140070405252</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +267,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.303995077089098</v>
+        <v>8.31420991993544</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>26.765774447179098</v>
+        <v>26.797196171581454</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.44693409599587774</v>
+        <v>0.44695802546495533</v>
       </c>
     </row>
     <row r="9">
@@ -305,7 +305,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.303995077089098</v>
+        <v>8.31420991993544</v>
       </c>
     </row>
     <row r="11">
@@ -316,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>26.765774447179098</v>
+        <v>26.797196171581454</v>
       </c>
     </row>
     <row r="12">
@@ -327,7 +327,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.44693409599587774</v>
+        <v>0.44695802546495533</v>
       </c>
     </row>
     <row r="13">
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7.268706588449116</v>
+        <v>7.2761566832357</v>
       </c>
     </row>
     <row r="15">
@@ -354,7 +354,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>23.58113910267801</v>
+        <v>23.604056227168023</v>
       </c>
     </row>
     <row r="16">
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32179798988851327</v>
+        <v>0.3218170343653928</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>7.186296489581906</v>
+        <v>7.205145092317862</v>
       </c>
     </row>
     <row r="19">
@@ -392,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.327638637371848</v>
+        <v>23.385618540679992</v>
       </c>
     </row>
     <row r="20">
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01733077744615341</v>
+        <v>-0.017311574674248202</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.065548943013923</v>
+        <v>21.255548943013924</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2523759476907</v>
+        <v>21.442375947690707</v>
       </c>
     </row>
     <row r="7">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>18.012676100376424</v>
+        <v>18.012890076310185</v>
       </c>
     </row>
     <row r="3">

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -229,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.158193778588456</v>
+        <v>6.158017520515703</v>
       </c>
     </row>
     <row r="3">
@@ -240,7 +240,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.16510735538278</v>
+        <v>20.1645651705769</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7604140070405252</v>
+        <v>-0.7602401392431766</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +267,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.31420991993544</v>
+        <v>8.314456254821266</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>26.797196171581454</v>
+        <v>26.797953918617765</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.44695802546495533</v>
+        <v>0.4472319936310508</v>
       </c>
     </row>
     <row r="9">
@@ -305,7 +305,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.31420991993544</v>
+        <v>8.314456254821266</v>
       </c>
     </row>
     <row r="11">
@@ -316,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>26.797196171581454</v>
+        <v>26.797953918617765</v>
       </c>
     </row>
     <row r="12">
@@ -327,7 +327,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.44695802546495533</v>
+        <v>0.4472319936310508</v>
       </c>
     </row>
     <row r="13">
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7.2761566832357</v>
+        <v>7.276247913447818</v>
       </c>
     </row>
     <row r="15">
@@ -354,7 +354,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>23.604056227168023</v>
+        <v>23.604336859051003</v>
       </c>
     </row>
     <row r="16">
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3218170343653928</v>
+        <v>0.3220037878413117</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>7.205145092317862</v>
+        <v>7.205183127640187</v>
       </c>
     </row>
     <row r="19">
@@ -392,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.385618540679992</v>
+        <v>23.385735540562777</v>
       </c>
     </row>
     <row r="20">
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.017311574674248202</v>
+        <v>-0.017184658529341576</v>
       </c>
     </row>
     <row r="21">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>18.012890076310185</v>
+        <v>18.011743779366896</v>
       </c>
     </row>
     <row r="3">

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -229,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.158017520515703</v>
+        <v>6.165366141587581</v>
       </c>
     </row>
     <row r="3">
@@ -240,7 +240,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.1645651705769</v>
+        <v>20.187170153299732</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7602401392431766</v>
+        <v>-0.7561407398332505</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +267,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.314456254821266</v>
+        <v>8.316041303807811</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>26.797953918617765</v>
+        <v>26.802829663958995</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4472319936310508</v>
+        <v>0.448111843819463</v>
       </c>
     </row>
     <row r="9">
@@ -305,7 +305,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.314456254821266</v>
+        <v>8.316041303807811</v>
       </c>
     </row>
     <row r="11">
@@ -316,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>26.797953918617765</v>
+        <v>26.802829663958995</v>
       </c>
     </row>
     <row r="12">
@@ -327,7 +327,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4472319936310508</v>
+        <v>0.448111843819463</v>
       </c>
     </row>
     <row r="13">
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7.276247913447818</v>
+        <v>7.277951412170038</v>
       </c>
     </row>
     <row r="15">
@@ -354,7 +354,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>23.604336859051003</v>
+        <v>23.609576965842123</v>
       </c>
     </row>
     <row r="16">
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3220037878413117</v>
+        <v>0.32270298420759413</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>7.205183127640187</v>
+        <v>7.206623920809382</v>
       </c>
     </row>
     <row r="19">
@@ -392,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.385735540562777</v>
+        <v>23.39016754275452</v>
       </c>
     </row>
     <row r="20">
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.017184658529341576</v>
+        <v>-0.0164820496491173</v>
       </c>
     </row>
     <row r="21">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>18.011743779366896</v>
+        <v>18.01244712946852</v>
       </c>
     </row>
     <row r="3">

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -229,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.165366141587581</v>
+        <v>-18.668700924075882</v>
       </c>
     </row>
     <row r="3">
@@ -240,7 +240,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.187170153299732</v>
+        <v>19.73771501954139</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +251,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7561407398332505</v>
+        <v>-0.6532862131403363</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +267,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.316041303807811</v>
+        <v>179.9463250231428</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +278,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>26.802829663958995</v>
+        <v>25.847281952053358</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +289,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.448111843819463</v>
+        <v>0.3762940227232179</v>
       </c>
     </row>
     <row r="9">
@@ -305,7 +305,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.316041303807811</v>
+        <v>179.9463250231428</v>
       </c>
     </row>
     <row r="11">
@@ -316,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>26.802829663958995</v>
+        <v>25.847281952053358</v>
       </c>
     </row>
     <row r="12">
@@ -327,7 +327,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.448111843819463</v>
+        <v>0.3762940227232179</v>
       </c>
     </row>
     <row r="13">
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7.277951412170038</v>
+        <v>90.44905315962053</v>
       </c>
     </row>
     <row r="15">
@@ -354,7 +354,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>23.609576965842123</v>
+        <v>23.0942698366824</v>
       </c>
     </row>
     <row r="16">
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32270298420759413</v>
+        <v>0.277391986384959</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>7.206623920809382</v>
+        <v>89.67669119555767</v>
       </c>
     </row>
     <row r="19">
@@ -392,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.39016754275452</v>
+        <v>23.07051132650391</v>
       </c>
     </row>
     <row r="20">
@@ -403,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0164820496491173</v>
+        <v>-0.03663601921183343</v>
       </c>
     </row>
     <row r="21">
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>18.01244712946852</v>
+        <v>17.98471085309022</v>
       </c>
     </row>
     <row r="3">

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="43">
   <si>
     <t>Description</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Zcg maximum take-off mass BRF</t>
+  </si>
+  <si>
+    <t>Max aft Xcg MAC</t>
+  </si>
+  <si>
+    <t>Max forward Xcg MAC</t>
   </si>
   <si>
     <t>Xcg LRF</t>
@@ -229,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-18.668700924075882</v>
+        <v>-16.064114310967643</v>
       </c>
     </row>
     <row r="3">
@@ -240,7 +246,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>19.73771501954139</v>
+        <v>19.81783431650001</v>
       </c>
     </row>
     <row r="4">
@@ -251,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6532862131403363</v>
+        <v>-0.5451193836938566</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +273,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>179.9463250231428</v>
+        <v>81.12294163972295</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +284,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>25.847281952053358</v>
+        <v>22.807390723286282</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +295,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3762940227232179</v>
+        <v>-0.062149507186539554</v>
       </c>
     </row>
     <row r="9">
@@ -305,7 +311,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.9463250231428</v>
+        <v>81.12294163972295</v>
       </c>
     </row>
     <row r="11">
@@ -316,7 +322,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>25.847281952053358</v>
+        <v>22.807390723286282</v>
       </c>
     </row>
     <row r="12">
@@ -327,7 +333,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3762940227232179</v>
+        <v>-0.062149507186539554</v>
       </c>
     </row>
     <row r="13">
@@ -343,7 +349,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>90.44905315962053</v>
+        <v>1.2451627130101575</v>
       </c>
     </row>
     <row r="15">
@@ -354,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>23.0942698366824</v>
+        <v>20.35028238293929</v>
       </c>
     </row>
     <row r="16">
@@ -365,7 +371,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277391986384959</v>
+        <v>-0.04189664103200362</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +387,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>89.67669119555767</v>
+        <v>9.49696099842701</v>
       </c>
     </row>
     <row r="19">
@@ -392,7 +398,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.07051132650391</v>
+        <v>20.60411470855467</v>
       </c>
     </row>
     <row r="20">
@@ -403,12 +409,34 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03663601921183343</v>
+        <v>-0.33896271527218036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.918191911578765</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83.87257400485379</v>
       </c>
     </row>
   </sheetData>
@@ -437,7 +465,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -448,7 +476,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -459,7 +487,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -475,7 +503,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -486,7 +514,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -497,7 +525,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -513,12 +541,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -529,7 +557,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -564,18 +592,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1655489430139268</v>
+        <v>2.1829837889405006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -586,7 +614,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -602,18 +630,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.255548943013924</v>
+        <v>21.272983788940497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -624,7 +652,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -640,60 +668,38 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2.148114097087354</v>
+        <v>2.1829837889405006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.1829837889405006</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18.465500883744475</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>6.183898882356097</v>
       </c>
     </row>
@@ -723,7 +729,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -734,7 +740,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -745,7 +751,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -761,7 +767,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -772,7 +778,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -783,7 +789,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -823,18 +829,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.6735397434217631</v>
+        <v>1.9104625588199173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -845,7 +851,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -861,18 +867,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>33.21353974342176</v>
+        <v>33.45046255881991</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -883,7 +889,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -899,18 +905,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6735397434217631</v>
+        <v>1.9104625588199173</v>
       </c>
     </row>
     <row r="12">
@@ -920,12 +926,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -960,7 +966,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -971,7 +977,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -998,7 +1004,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1009,7 +1015,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1020,13 +1026,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1963999999999992</v>
+        <v>3.696399999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1036,12 +1042,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1057,12 +1063,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1107,12 +1113,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1123,7 +1129,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1134,7 +1140,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1172,7 +1178,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1198,12 +1204,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1214,7 +1220,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1225,7 +1231,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1263,7 +1269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1313,7 +1319,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1323,12 +1329,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1339,7 +1345,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1350,7 +1356,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1377,7 +1383,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1414,12 +1420,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1430,7 +1436,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1529,18 +1535,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>17.98471085309022</v>
+        <v>18.071522634084396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1551,7 +1557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
+++ b/JPADSandBox_v2/out/IRON/BALANCE/Balance.xlsx
@@ -85,10 +85,10 @@
     <t>Zcg maximum take-off mass BRF</t>
   </si>
   <si>
+    <t>Max forward Xcg MAC</t>
+  </si>
+  <si>
     <t>Max aft Xcg MAC</t>
-  </si>
-  <si>
-    <t>Max forward Xcg MAC</t>
   </si>
   <si>
     <t>Xcg LRF</t>
@@ -235,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>-16.064114310967643</v>
+        <v>-16.329351801878612</v>
       </c>
     </row>
     <row r="3">
@@ -246,7 +246,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>19.81783431650001</v>
+        <v>19.75693186198474</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5451193836938566</v>
+        <v>-0.5174378876703667</v>
       </c>
     </row>
     <row r="5">
@@ -273,7 +273,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>81.12294163972295</v>
+        <v>88.1977944981336</v>
       </c>
     </row>
     <row r="7">
@@ -284,7 +284,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>22.807390723286282</v>
+        <v>22.837106327893174</v>
       </c>
     </row>
     <row r="8">
@@ -295,7 +295,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.062149507186539554</v>
+        <v>-0.0282959666618242</v>
       </c>
     </row>
     <row r="9">
@@ -311,7 +311,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>81.12294163972295</v>
+        <v>88.1977944981336</v>
       </c>
     </row>
     <row r="11">
@@ -322,7 +322,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>22.807390723286282</v>
+        <v>22.837106327893174</v>
       </c>
     </row>
     <row r="12">
@@ -333,7 +333,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.062149507186539554</v>
+        <v>-0.0282959666618242</v>
       </c>
     </row>
     <row r="13">
@@ -349,7 +349,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1.2451627130101575</v>
+        <v>3.4924007008475004</v>
       </c>
     </row>
     <row r="15">
@@ -360,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>20.35028238293929</v>
+        <v>20.341033294862434</v>
       </c>
     </row>
     <row r="16">
@@ -371,7 +371,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04189664103200362</v>
+        <v>-0.01896605115289715</v>
       </c>
     </row>
     <row r="17">
@@ -387,7 +387,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>9.49696099842701</v>
+        <v>12.098162583058741</v>
       </c>
     </row>
     <row r="19">
@@ -398,7 +398,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>20.60411470855467</v>
+        <v>20.594625294142645</v>
       </c>
     </row>
     <row r="20">
@@ -409,7 +409,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.33896271527218036</v>
+        <v>-0.3240984506076898</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.918191911578765</v>
+        <v>0.25831066811662906</v>
       </c>
     </row>
     <row r="23">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>83.87257400485379</v>
+        <v>90.97143260202606</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2.1829837889405006</v>
+        <v>2.0862310247028493</v>
       </c>
     </row>
     <row r="3">
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6.183898882356097</v>
+        <v>5.766295695644638</v>
       </c>
     </row>
     <row r="4">
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.272983788940497</v>
+        <v>21.176231024702844</v>
       </c>
     </row>
     <row r="7">
@@ -647,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>6.183898882356096</v>
+        <v>5.766295695644637</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2.1829837889405006</v>
+        <v>2.0862310247028493</v>
       </c>
     </row>
     <row r="12">
@@ -700,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6.183898882356097</v>
+        <v>5.766295695644638</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3523759476907085</v>
+        <v>2.332307524701931</v>
       </c>
     </row>
     <row r="3">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>21.442375947690707</v>
+        <v>21.422307524701928</v>
       </c>
     </row>
     <row r="7">
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>18.071522634084396</v>
+        <v>18.071707001519314</v>
       </c>
     </row>
     <row r="3">
